--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224410.771228364</v>
+        <v>1192129.367697482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584564</v>
+        <v>6486630.97258456</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8911562.337438866</v>
+        <v>8911562.337438868</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.109715859037</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>31.50341902908249</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
@@ -1390,7 +1390,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968169</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717002</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>107.5043792024161</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.8062813898832</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>47.86448945142477</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>118.269452183285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0499378478622</v>
+        <v>123.8806927483491</v>
       </c>
       <c r="V14" t="n">
-        <v>9.885760149092315</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>21.69126064627581</v>
+        <v>21.69126064627714</v>
       </c>
       <c r="I15" t="n">
         <v>21.30239922246437</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.7394132419461</v>
+        <v>53.76397372915756</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>67.31621895147879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>167.9634158447395</v>
+        <v>77.54728525389923</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T18" t="n">
-        <v>192.192932426668</v>
+        <v>120.749831951219</v>
       </c>
       <c r="U18" t="n">
         <v>225.8112657109832</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>155.5419945243184</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>235.9253027205585</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>176.2211659153531</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>77.54728525389923</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>179.890640622248</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.50388216741803</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355341</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.5666756780463</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
         <v>286.2285878140705</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>77.22810184760107</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.321625357374234</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>43.39661421590963</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>135.1921441586073</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>77.22810184760058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>19.80055786435284</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>190.5935397000524</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>80.08805505740028</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.15019216126358</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>205.9136433741223</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>179.5478433951443</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>219.8208771050312</v>
       </c>
       <c r="X31" t="n">
-        <v>200.1983439946917</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>195.3237932237977</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>308.4164707705897</v>
       </c>
     </row>
     <row r="33">
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>65.15928918313365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.17475835043773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>259.4593850439153</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>278.8150126854931</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>86.20197997995173</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>146.1308277393697</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>67.3162189514789</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>323.3724314332696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>364.3661015476562</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>63.92264786388877</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>21.69126064627669</v>
       </c>
       <c r="I39" t="n">
         <v>21.30239922246437</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>60.08655069139101</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>242.4437574125337</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>129.7402893749282</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>78.41969727034363</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>95.0900831744169</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>63.92264786388877</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
         <v>93.13436112172583</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>100.7045585449824</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>170.8629698603921</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717002</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>105.8153665314736</v>
       </c>
       <c r="U44" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>183.2410773281689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>85.22504708635184</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986873975</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.04461431100793</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
@@ -4194,16 +4194,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.34474465205312</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1249.888488371226</v>
+        <v>1625.474988503186</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.888488371226</v>
+        <v>1256.512471562774</v>
       </c>
       <c r="D11" t="n">
-        <v>1249.888488371226</v>
+        <v>1256.512471562774</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>870.7242189645301</v>
       </c>
       <c r="F11" t="n">
         <v>838.9025835816185</v>
@@ -5038,55 +5038,55 @@
         <v>118.4733379687845</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799483</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549147</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837421</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326143</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520222</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.252949520222</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.252949520222</v>
+        <v>2012.074828567308</v>
       </c>
       <c r="X11" t="n">
-        <v>1528.787191259142</v>
+        <v>2012.074828567308</v>
       </c>
       <c r="Y11" t="n">
-        <v>1528.787191259142</v>
+        <v>2012.074828567308</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.7854722244625</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C12" t="n">
-        <v>735.3324429433355</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D12" t="n">
-        <v>586.3980332820843</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E12" t="n">
-        <v>427.1605782766288</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F12" t="n">
-        <v>280.6260203035138</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G12" t="n">
         <v>143.8929411728695</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310206</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570699</v>
+        <v>675.5961174916489</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397323</v>
+        <v>963.5604006743115</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288404</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518708</v>
+        <v>1791.185219170621</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232465</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994174</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435097</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T12" t="n">
-        <v>2211.094260761813</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U12" t="n">
-        <v>1983.002073174961</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V12" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W12" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1285.761108009484</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y12" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>98.16579807155529</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477624</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N13" t="n">
         <v>1104.867129907538</v>
@@ -5217,34 +5217,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q13" t="n">
         <v>1609.220368204926</v>
       </c>
       <c r="R13" t="n">
-        <v>1609.220368204926</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.220368204926</v>
+        <v>1308.3517434821</v>
       </c>
       <c r="U13" t="n">
-        <v>1609.220368204926</v>
+        <v>1019.231957811322</v>
       </c>
       <c r="V13" t="n">
-        <v>1609.220368204926</v>
+        <v>764.5474696054353</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.220368204926</v>
+        <v>475.1302995684746</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.756275090497</v>
+        <v>247.1407486704573</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>247.1407486704573</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1539.498677937894</v>
+        <v>1215.554503256966</v>
       </c>
       <c r="C14" t="n">
-        <v>1539.498677937894</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="D14" t="n">
-        <v>1181.232979331143</v>
+        <v>846.5919863165539</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.232979331143</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F14" t="n">
-        <v>770.2470745415359</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G14" t="n">
-        <v>354.4831358895594</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L14" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837421</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326144</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520223</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="V14" t="n">
-        <v>1892.267333208008</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="W14" t="n">
-        <v>1539.498677937894</v>
+        <v>2365.759433557979</v>
       </c>
       <c r="X14" t="n">
-        <v>1539.498677937894</v>
+        <v>1992.293675296899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1539.498677937894</v>
+        <v>1602.154343321087</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416488</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938151</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005568</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H15" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K15" t="n">
-        <v>413.775532849196</v>
+        <v>288.9454078621912</v>
       </c>
       <c r="L15" t="n">
-        <v>819.2919819292621</v>
+        <v>576.9096910448537</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.689586177934</v>
+        <v>932.3072952935252</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.18521917062</v>
+        <v>1548.802928286212</v>
       </c>
       <c r="O15" t="n">
-        <v>2115.870836884377</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.126603646086</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228519</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435098</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870196</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490677</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204926</v>
       </c>
       <c r="R16" t="n">
-        <v>1505.443183112051</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.3517434821</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.259822331915</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U16" t="n">
-        <v>796.1400366611371</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V16" t="n">
-        <v>541.4555484552502</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W16" t="n">
-        <v>473.4593676961807</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X16" t="n">
-        <v>473.4593676961807</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1204.857684923304</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C17" t="n">
-        <v>1204.857684923304</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D17" t="n">
-        <v>846.5919863165537</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E17" t="n">
-        <v>460.8037337183095</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F17" t="n">
-        <v>49.81782892870195</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799483</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2321.23143043031</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V17" t="n">
-        <v>2321.23143043031</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W17" t="n">
-        <v>1968.462775160196</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X17" t="n">
-        <v>1594.997016899116</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y17" t="n">
-        <v>1204.857684923304</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>909.7854722244625</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>735.3324429433355</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>586.3980332820843</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>427.1605782766288</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
-        <v>280.6260203035138</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G18" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>49.81782892870195</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310206</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570699</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397323</v>
+        <v>905.4410408548783</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288404</v>
+        <v>1260.83864510355</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.619652518708</v>
+        <v>1813.5961673772</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232465</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994174</v>
+        <v>2379.537551852666</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087778999</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192147</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960405</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232203</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.11393502667</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>661.6088351675888</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C19" t="n">
-        <v>661.6088351675888</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D19" t="n">
-        <v>661.6088351675888</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E19" t="n">
-        <v>513.6957415851957</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872853</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870195</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477624</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5691,7 +5691,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
         <v>1609.220368204926</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574974</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.03700742479</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540116</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="V19" t="n">
-        <v>661.6088351675888</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="W19" t="n">
-        <v>661.6088351675888</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="X19" t="n">
-        <v>661.6088351675888</v>
+        <v>1234.127750882699</v>
       </c>
       <c r="Y19" t="n">
-        <v>661.6088351675888</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.809983127841</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="C20" t="n">
-        <v>823.8474661874289</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
-        <v>465.5817675806784</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>465.5817675806784</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>465.5817675806784</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870194</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870194</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870194</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799483</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549141</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085905</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317522</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.347327962847</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561744</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.891446435097</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.891446435097</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="U20" t="n">
-        <v>2309.183728634846</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="V20" t="n">
-        <v>2309.183728634846</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="W20" t="n">
-        <v>1956.415073364732</v>
+        <v>2412.560855269544</v>
       </c>
       <c r="X20" t="n">
-        <v>1582.949315103652</v>
+        <v>2039.095097008464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1192.809983127841</v>
+        <v>1648.955765032652</v>
       </c>
     </row>
     <row r="21">
@@ -5819,49 +5819,49 @@
         <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088818</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870194</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310206</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>413.7755328491959</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L21" t="n">
-        <v>701.7398160318583</v>
+        <v>764.765033412715</v>
       </c>
       <c r="M21" t="n">
-        <v>1057.13742028053</v>
+        <v>1120.162637661386</v>
       </c>
       <c r="N21" t="n">
-        <v>1436.349986510834</v>
+        <v>1499.375203891691</v>
       </c>
       <c r="O21" t="n">
-        <v>1761.035604224591</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787595</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228518</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435097</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U21" t="n">
         <v>2004.519648147148</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1065.416094328261</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870194</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477623</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642498</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N22" t="n">
         <v>1104.867129907538</v>
@@ -5928,7 +5928,7 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
         <v>1609.220368204926</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1320.100582534148</v>
+        <v>899.9172217540123</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.416094328261</v>
+        <v>645.2327335481255</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.416094328261</v>
+        <v>355.8155635111648</v>
       </c>
       <c r="X22" t="n">
-        <v>1065.416094328261</v>
+        <v>127.8260126131475</v>
       </c>
       <c r="Y22" t="n">
-        <v>1065.416094328261</v>
+        <v>49.81782892870198</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.292951821981</v>
+        <v>785.5791023005231</v>
       </c>
       <c r="C23" t="n">
-        <v>1206.33043488157</v>
+        <v>785.5791023005231</v>
       </c>
       <c r="D23" t="n">
-        <v>848.0647362748191</v>
+        <v>785.5791023005231</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2764836765748</v>
+        <v>399.7908497022789</v>
       </c>
       <c r="F23" t="n">
-        <v>51.29057888696727</v>
+        <v>399.7908497022789</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>399.7908497022789</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>95.12554274142144</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402486</v>
+        <v>189.753895820996</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382138</v>
+        <v>437.3637422189612</v>
       </c>
       <c r="L23" t="n">
-        <v>774.34192141318</v>
+        <v>781.4474136939275</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556536</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.925570201861</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U23" t="n">
-        <v>2310.943148542442</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="V23" t="n">
-        <v>2310.943148542442</v>
+        <v>1898.413355895839</v>
       </c>
       <c r="W23" t="n">
-        <v>1958.174493272328</v>
+        <v>1545.644700625725</v>
       </c>
       <c r="X23" t="n">
-        <v>1584.708735011248</v>
+        <v>1172.178942364645</v>
       </c>
       <c r="Y23" t="n">
-        <v>1584.708735011248</v>
+        <v>1172.178942364645</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915355</v>
+        <v>72.80815385915351</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>552.2387424629094</v>
+        <v>517.9025810852689</v>
       </c>
       <c r="L24" t="n">
-        <v>840.2030256455719</v>
+        <v>1152.623494811489</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.600629894243</v>
+        <v>1508.02109906016</v>
       </c>
       <c r="N24" t="n">
-        <v>1574.813196124548</v>
+        <v>1887.233665290465</v>
       </c>
       <c r="O24" t="n">
-        <v>1899.498813838305</v>
+        <v>2211.919283004222</v>
       </c>
       <c r="P24" t="n">
         <v>2453.175049765931</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1005.126405072139</v>
+        <v>833.1594568671948</v>
       </c>
       <c r="C25" t="n">
-        <v>1005.126405072139</v>
+        <v>664.2232739392879</v>
       </c>
       <c r="D25" t="n">
-        <v>1005.126405072139</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E25" t="n">
-        <v>1005.126405072139</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F25" t="n">
-        <v>1005.126405072139</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198214</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792505</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282873</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S25" t="n">
-        <v>2367.437504718412</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.345583568228</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U25" t="n">
-        <v>1855.225797897449</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.541309691562</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="W25" t="n">
-        <v>1311.124139654602</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="X25" t="n">
-        <v>1083.134588756584</v>
+        <v>1053.952036010725</v>
       </c>
       <c r="Y25" t="n">
-        <v>1005.126405072139</v>
+        <v>833.1594568671948</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1221.8052870776</v>
+        <v>1271.361801828838</v>
       </c>
       <c r="C26" t="n">
-        <v>852.8427701371879</v>
+        <v>1271.361801828838</v>
       </c>
       <c r="D26" t="n">
-        <v>852.8427701371879</v>
+        <v>1271.361801828838</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0545175389437</v>
+        <v>1251.361238329491</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0545175389437</v>
+        <v>840.3753335398837</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270498</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
         <v>182.6484035402486</v>
@@ -6235,43 +6235,43 @@
         <v>774.34192141318</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198923</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.503827275788</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2300.820077921113</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800758</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W26" t="n">
-        <v>2372.010217378613</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X26" t="n">
-        <v>1998.544459117533</v>
+        <v>1271.361801828838</v>
       </c>
       <c r="Y26" t="n">
-        <v>1608.405127141721</v>
+        <v>1271.361801828838</v>
       </c>
     </row>
     <row r="27">
@@ -6284,13 +6284,13 @@
         <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
         <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F27" t="n">
         <v>303.6163452339654</v>
@@ -6302,28 +6302,28 @@
         <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022812</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204565</v>
+        <v>656.6826967703356</v>
       </c>
       <c r="L27" t="n">
-        <v>617.791837838025</v>
+        <v>944.6469799529981</v>
       </c>
       <c r="M27" t="n">
-        <v>1252.512751564245</v>
+        <v>1300.04458420167</v>
       </c>
       <c r="N27" t="n">
-        <v>1887.233665290465</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004222</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1935.970233651268</v>
+        <v>685.2463632848016</v>
       </c>
       <c r="C28" t="n">
-        <v>1767.034050723361</v>
+        <v>516.3101803568948</v>
       </c>
       <c r="D28" t="n">
-        <v>1616.917411311026</v>
+        <v>366.193540944559</v>
       </c>
       <c r="E28" t="n">
-        <v>1469.004317728632</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F28" t="n">
-        <v>1322.114370230722</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G28" t="n">
-        <v>1154.101355671041</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H28" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I28" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K28" t="n">
-        <v>1197.423139792505</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L28" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M28" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N28" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O28" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P28" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R28" t="n">
-        <v>2460.751759255488</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.854733944983</v>
+        <v>1413.60167853324</v>
       </c>
       <c r="T28" t="n">
-        <v>2156.762812794798</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U28" t="n">
-        <v>2156.762812794798</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="V28" t="n">
-        <v>2156.762812794798</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="W28" t="n">
-        <v>2156.762812794798</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="X28" t="n">
-        <v>2156.762812794798</v>
+        <v>901.3899717122773</v>
       </c>
       <c r="Y28" t="n">
-        <v>1935.970233651268</v>
+        <v>866.8948281150414</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1232.962556072456</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C29" t="n">
-        <v>864.0000391320445</v>
+        <v>1206.33043488157</v>
       </c>
       <c r="D29" t="n">
-        <v>505.734340525294</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E29" t="n">
-        <v>119.9460879270497</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
@@ -6472,19 +6472,19 @@
         <v>774.34192141318</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6496,19 +6496,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2383.16748637347</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>2383.16748637347</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2383.16748637347</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X29" t="n">
-        <v>2009.70172811239</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y29" t="n">
-        <v>1619.562396136578</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033213</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915351</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1179492371872</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8275546553625</v>
+        <v>609.1508641329109</v>
       </c>
       <c r="L30" t="n">
-        <v>617.791837838025</v>
+        <v>897.1151473155734</v>
       </c>
       <c r="M30" t="n">
         <v>1252.512751564245</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1005.126405072139</v>
+        <v>683.042817454859</v>
       </c>
       <c r="C31" t="n">
-        <v>1005.126405072139</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="D31" t="n">
-        <v>1005.126405072139</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E31" t="n">
-        <v>1005.126405072139</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F31" t="n">
-        <v>1005.126405072139</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K31" t="n">
-        <v>1197.423139792505</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L31" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M31" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N31" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O31" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P31" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R31" t="n">
-        <v>2460.751759255488</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.660319625537</v>
+        <v>1309.824493440365</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.568398475352</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.448612804574</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.764124598687</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.346954561727</v>
+        <v>864.6912822850987</v>
       </c>
       <c r="X31" t="n">
-        <v>1005.126405072139</v>
+        <v>864.6912822850987</v>
       </c>
       <c r="Y31" t="n">
-        <v>1005.126405072139</v>
+        <v>864.6912822850987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1414.32401404735</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="C32" t="n">
-        <v>1045.361497106938</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.361497106938</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="E32" t="n">
-        <v>659.5732445086937</v>
+        <v>946.6959313686339</v>
       </c>
       <c r="F32" t="n">
-        <v>248.5873397190862</v>
+        <v>535.7100265790262</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I32" t="n">
         <v>51.29057888696726</v>
@@ -6703,49 +6703,49 @@
         <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>502.422997893213</v>
+        <v>430.2582499382138</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681792</v>
+        <v>774.34192141318</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198923</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044172</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P32" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.476243239409</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087283</v>
+        <v>1644.827560089917</v>
       </c>
       <c r="Y32" t="n">
-        <v>1800.923854111471</v>
+        <v>1333.295771432756</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
@@ -6785,16 +6785,16 @@
         <v>290.4181578204565</v>
       </c>
       <c r="L33" t="n">
-        <v>578.382441003119</v>
+        <v>925.1390715466763</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.103354729339</v>
+        <v>1280.536675795348</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455558</v>
+        <v>1659.749242025652</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004222</v>
+        <v>1984.434859739409</v>
       </c>
       <c r="P33" t="n">
         <v>2453.17504976593</v>
@@ -6815,7 +6815,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1389.996691233729</v>
+        <v>850.5076976252127</v>
       </c>
       <c r="C34" t="n">
-        <v>1221.060508305822</v>
+        <v>681.5715146973058</v>
       </c>
       <c r="D34" t="n">
-        <v>1070.943868893486</v>
+        <v>531.4548752849701</v>
       </c>
       <c r="E34" t="n">
-        <v>1005.126405072139</v>
+        <v>383.5417817025769</v>
       </c>
       <c r="F34" t="n">
-        <v>1005.126405072139</v>
+        <v>236.6518342046666</v>
       </c>
       <c r="G34" t="n">
-        <v>1005.126405072139</v>
+        <v>68.63881964498518</v>
       </c>
       <c r="H34" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072139</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304157</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792505</v>
+        <v>243.587313607333</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977007</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225152</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865803</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256867</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163191</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>1321.573332492413</v>
       </c>
       <c r="V34" t="n">
-        <v>2309.844456142476</v>
+        <v>1321.573332492413</v>
       </c>
       <c r="W34" t="n">
-        <v>2020.427286105516</v>
+        <v>1032.156162455452</v>
       </c>
       <c r="X34" t="n">
-        <v>1792.437735207498</v>
+        <v>1032.156162455452</v>
       </c>
       <c r="Y34" t="n">
-        <v>1571.645156063968</v>
+        <v>1032.156162455452</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1620.621623575281</v>
+        <v>1138.647859283332</v>
       </c>
       <c r="C35" t="n">
-        <v>1620.621623575281</v>
+        <v>1138.647859283332</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.35592496853</v>
+        <v>1138.647859283332</v>
       </c>
       <c r="E35" t="n">
-        <v>876.5676723702861</v>
+        <v>1138.647859283332</v>
       </c>
       <c r="F35" t="n">
-        <v>465.5817675806785</v>
+        <v>727.6619544937244</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870198</v>
+        <v>311.8980158417478</v>
       </c>
       <c r="H35" t="n">
         <v>49.81782892870198</v>
@@ -6937,13 +6937,13 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799484</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240658</v>
@@ -6973,16 +6973,16 @@
         <v>1902.252949520223</v>
       </c>
       <c r="V35" t="n">
-        <v>1620.621623575281</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="W35" t="n">
-        <v>1620.621623575281</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="X35" t="n">
-        <v>1620.621623575281</v>
+        <v>1528.787191259144</v>
       </c>
       <c r="Y35" t="n">
-        <v>1620.621623575281</v>
+        <v>1138.647859283332</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
         <v>448.6781532488152</v>
@@ -7016,52 +7016,52 @@
         <v>49.81782892870198</v>
       </c>
       <c r="J36" t="n">
-        <v>109.2358024440159</v>
+        <v>141.5150087964428</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621912</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L36" t="n">
-        <v>576.9096910448537</v>
+        <v>871.0094820397334</v>
       </c>
       <c r="M36" t="n">
-        <v>932.3072952935252</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N36" t="n">
-        <v>1311.51986152383</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O36" t="n">
-        <v>1636.205479237587</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P36" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R36" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957453</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960406</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1355.130445926353</v>
+        <v>218.7540118566089</v>
       </c>
       <c r="C37" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D37" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E37" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F37" t="n">
-        <v>1355.130445926353</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G37" t="n">
-        <v>1187.117431366672</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H37" t="n">
-        <v>1038.14248076777</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I37" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J37" t="n">
-        <v>955.1183582849488</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K37" t="n">
-        <v>1123.78564187924</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L37" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M37" t="n">
-        <v>1691.650947694422</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N37" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>2438.737456460603</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q37" t="n">
-        <v>2490.891446435099</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>2387.114261342224</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
-        <v>2190.022821712273</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T37" t="n">
-        <v>1966.930900562088</v>
+        <v>1461.613471498492</v>
       </c>
       <c r="U37" t="n">
-        <v>1677.81111489131</v>
+        <v>1172.493685827714</v>
       </c>
       <c r="V37" t="n">
-        <v>1423.126626685423</v>
+        <v>917.8091976218266</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.130445926353</v>
+        <v>628.3920275848659</v>
       </c>
       <c r="X37" t="n">
-        <v>1355.130445926353</v>
+        <v>400.4024766868486</v>
       </c>
       <c r="Y37" t="n">
-        <v>1355.130445926353</v>
+        <v>400.4024766868486</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1588.104311797488</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="C38" t="n">
-        <v>1219.141794857077</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="D38" t="n">
-        <v>860.8760962503263</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="E38" t="n">
-        <v>534.237276620761</v>
+        <v>828.8503009381643</v>
       </c>
       <c r="F38" t="n">
-        <v>534.237276620761</v>
+        <v>417.8643961485568</v>
       </c>
       <c r="G38" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I38" t="n">
         <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
         <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
         <v>2474.446703561746</v>
@@ -7216,10 +7216,10 @@
         <v>2364.843483837422</v>
       </c>
       <c r="X38" t="n">
-        <v>2364.843483837422</v>
+        <v>1991.377725576342</v>
       </c>
       <c r="Y38" t="n">
-        <v>1974.70415186161</v>
+        <v>1601.23839360053</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>229.978847320701</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H39" t="n">
         <v>71.33540390088822</v>
@@ -7259,16 +7259,16 @@
         <v>413.775532849196</v>
       </c>
       <c r="L39" t="n">
-        <v>701.7398160318585</v>
+        <v>848.5985338331542</v>
       </c>
       <c r="M39" t="n">
-        <v>1057.13742028053</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.349986510835</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
-        <v>1761.035604224592</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
         <v>2149.150088787596</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>594.3504594610603</v>
+        <v>665.7586954502398</v>
       </c>
       <c r="C40" t="n">
-        <v>425.4142765331534</v>
+        <v>496.8225125223329</v>
       </c>
       <c r="D40" t="n">
-        <v>425.4142765331534</v>
+        <v>346.7058731099971</v>
       </c>
       <c r="E40" t="n">
-        <v>425.4142765331534</v>
+        <v>198.792779527604</v>
       </c>
       <c r="F40" t="n">
-        <v>278.524329035243</v>
+        <v>198.792779527604</v>
       </c>
       <c r="G40" t="n">
-        <v>110.5113144755616</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H40" t="n">
         <v>49.81782892870198</v>
@@ -7362,22 +7362,22 @@
         <v>1609.220368204926</v>
       </c>
       <c r="T40" t="n">
-        <v>1609.220368204926</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="U40" t="n">
-        <v>1320.100582534148</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.416094328261</v>
+        <v>1131.443958848854</v>
       </c>
       <c r="W40" t="n">
-        <v>775.9989242913</v>
+        <v>886.5512745937699</v>
       </c>
       <c r="X40" t="n">
-        <v>775.9989242913</v>
+        <v>886.5512745937699</v>
       </c>
       <c r="Y40" t="n">
-        <v>775.9989242913</v>
+        <v>665.7586954502398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.686516134085</v>
+        <v>1139.209591481948</v>
       </c>
       <c r="C41" t="n">
-        <v>1209.635718785673</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="D41" t="n">
-        <v>851.3700201789227</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="E41" t="n">
-        <v>465.5817675806785</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="F41" t="n">
-        <v>465.5817675806785</v>
+        <v>770.2470745415359</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870198</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317522</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962847</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561744</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326143</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435099</v>
+        <v>1902.252949520222</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435099</v>
+        <v>1571.190062176651</v>
       </c>
       <c r="W41" t="n">
-        <v>2490.891446435099</v>
+        <v>1218.421406906537</v>
       </c>
       <c r="X41" t="n">
-        <v>2117.425688174019</v>
+        <v>1139.209591481948</v>
       </c>
       <c r="Y41" t="n">
-        <v>1727.286356198207</v>
+        <v>1139.209591481948</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992715</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.513405293816</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.978847320701</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J42" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964418</v>
       </c>
       <c r="K42" t="n">
-        <v>560.6342506504917</v>
+        <v>583.0451988570699</v>
       </c>
       <c r="L42" t="n">
-        <v>848.5985338331542</v>
+        <v>871.0094820397323</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288404</v>
       </c>
       <c r="N42" t="n">
-        <v>1583.20870431213</v>
+        <v>1605.619652518708</v>
       </c>
       <c r="O42" t="n">
-        <v>1907.894322025887</v>
+        <v>1930.305270232465</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2171.561036994174</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435097</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087778999</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.354900192147</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1442.965435232203</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.11393502667</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261716</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.7837448513377</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C43" t="n">
-        <v>347.8475619234308</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D43" t="n">
-        <v>197.7309225110951</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870198</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870198</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870198</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870198</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477624</v>
       </c>
       <c r="K43" t="n">
         <v>242.1145636490677</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204926</v>
+        <v>1412.128928574974</v>
       </c>
       <c r="T43" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="U43" t="n">
-        <v>1609.220368204926</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="V43" t="n">
-        <v>1436.631509760085</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="W43" t="n">
-        <v>1147.214339723125</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="X43" t="n">
-        <v>919.2247888251076</v>
+        <v>1189.03700742479</v>
       </c>
       <c r="Y43" t="n">
-        <v>698.4322096815774</v>
+        <v>1189.03700742479</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1331.011434008613</v>
+        <v>1261.465492167923</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.011434008613</v>
+        <v>892.5029752275116</v>
       </c>
       <c r="D44" t="n">
-        <v>1331.011434008613</v>
+        <v>534.237276620761</v>
       </c>
       <c r="E44" t="n">
-        <v>945.2231814103684</v>
+        <v>534.237276620761</v>
       </c>
       <c r="F44" t="n">
-        <v>534.2372766207609</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G44" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H44" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I44" t="n">
         <v>49.81782892870195</v>
@@ -7651,16 +7651,16 @@
         <v>181.1756535819832</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799484</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549141</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085905</v>
       </c>
       <c r="O44" t="n">
         <v>2002.031077317523</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962847</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561744</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
         <v>2490.891446435097</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435097</v>
+        <v>2364.843483837421</v>
       </c>
       <c r="T44" t="n">
-        <v>2490.891446435097</v>
+        <v>2257.95927521977</v>
       </c>
       <c r="U44" t="n">
-        <v>2237.305650629176</v>
+        <v>2004.373479413849</v>
       </c>
       <c r="V44" t="n">
-        <v>1906.242763285605</v>
+        <v>2004.373479413849</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.150765984424</v>
+        <v>1651.604824143735</v>
       </c>
       <c r="X44" t="n">
-        <v>1721.150765984424</v>
+        <v>1651.604824143735</v>
       </c>
       <c r="Y44" t="n">
-        <v>1331.011434008613</v>
+        <v>1261.465492167923</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>229.9788473206996</v>
       </c>
       <c r="G45" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005523</v>
       </c>
       <c r="H45" t="n">
         <v>49.81782892870195</v>
@@ -7730,25 +7730,25 @@
         <v>234.0659274310206</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570695</v>
+        <v>413.7755328491959</v>
       </c>
       <c r="L45" t="n">
-        <v>871.009482039732</v>
+        <v>848.5985338331532</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.407086288403</v>
+        <v>1203.996138081824</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.619652518708</v>
+        <v>1583.208704312129</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232465</v>
+        <v>1907.894322025886</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.561036994174</v>
+        <v>2149.150088787595</v>
       </c>
       <c r="Q45" t="n">
-        <v>2490.891446435097</v>
+        <v>2468.480498228518</v>
       </c>
       <c r="R45" t="n">
         <v>2490.891446435097</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>304.3844961199904</v>
+        <v>552.9070031411156</v>
       </c>
       <c r="C46" t="n">
-        <v>304.3844961199904</v>
+        <v>383.9708202132088</v>
       </c>
       <c r="D46" t="n">
-        <v>304.3844961199904</v>
+        <v>365.7439370707765</v>
       </c>
       <c r="E46" t="n">
-        <v>156.4714025375973</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F46" t="n">
-        <v>156.4714025375973</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870195</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870195</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477626</v>
+        <v>73.44728005477624</v>
       </c>
       <c r="K46" t="n">
         <v>242.1145636490677</v>
@@ -7833,25 +7833,25 @@
         <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T46" t="n">
-        <v>1189.03700742479</v>
+        <v>1386.128447054741</v>
       </c>
       <c r="U46" t="n">
-        <v>899.9172217540118</v>
+        <v>1097.008661383963</v>
       </c>
       <c r="V46" t="n">
-        <v>899.9172217540118</v>
+        <v>842.3241731780762</v>
       </c>
       <c r="W46" t="n">
-        <v>610.5000517170513</v>
+        <v>552.9070031411156</v>
       </c>
       <c r="X46" t="n">
-        <v>382.510500819034</v>
+        <v>552.9070031411156</v>
       </c>
       <c r="Y46" t="n">
-        <v>304.3844961199904</v>
+        <v>552.9070031411156</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140141</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>93.95418991649842</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053384</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>118.7395615125289</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>239.6798654165475</v>
+        <v>239.6798654165478</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>267.467918273726</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140141</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>331.8498482929539</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>175.297935397319</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.88434839053384</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>189.7528710786476</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>294.7575911908384</v>
       </c>
       <c r="P21" t="n">
-        <v>148.3421391932266</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930047954</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.89368480303006</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>103.6912103816239</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>350.2592227712701</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>315.5762314807241</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>72.89368480303006</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.177264930047727</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>243.8731454170448</v>
       </c>
       <c r="L27" t="n">
-        <v>39.80747155041013</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>22.88434839053383</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.8936848030296</v>
+        <v>7.177264930047556</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>39.80747155041009</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>195.8611932580299</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>258.0892398948638</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72.89368480302949</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>7.177264930047556</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>350.2592227712701</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480287</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948638</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>39.80747155041036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>229.7822457220324</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>32.60525894184529</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>274.4331745336369</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>148.342139193228</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>148.342139193228</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184434</v>
       </c>
       <c r="K42" t="n">
-        <v>148.342139193228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053384</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>170.9794606140137</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>148.3421391932271</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>22.88434839053383</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.6241258044436</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>375.372626712629</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>50.14070125298483</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.14070125298571</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.72254842138157</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.7394132419461</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>107.4402032057522</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
         <v>67.96895394968166</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>127.1692450995131</v>
       </c>
       <c r="V14" t="n">
-        <v>317.8664983210426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>71.44310047545002</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.9754395127885</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>219.2067793851122</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968169</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717002</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>83.08652200312272</v>
+        <v>173.502652593963</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246437</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>71.44310047544907</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.14070125298593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>16.21234060326947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>49.48848947368407</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968169</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717002</v>
+        <v>47.2401977178009</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>71.15929722561421</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.44310047545088</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>71.44310047544911</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.68014542058157</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>141.3565515044937</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>373.4122163061064</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968166</v>
+        <v>24.57233973377203</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.485201092913</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>151.0364436554631</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.3565515044942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>362.129812207909</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>158.6474290173607</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S28" t="n">
-        <v>115.0324701762515</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.4344611908312</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>159.3592483968852</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
@@ -24700,7 +24700,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>71.50209445271793</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>66.7021212315598</v>
       </c>
       <c r="X31" t="n">
-        <v>25.51131139434546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>216.282506041659</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>77.8214678854639</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.27467346343552</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>130.3104427424752</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -25131,19 +25131,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>42.15926884733352</v>
       </c>
       <c r="I35" t="n">
         <v>67.96895394968166</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.93724578464179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>71.44310047544921</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>74.73017419931307</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>219.2067793851121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>58.55793863899214</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>47.24019771780053</v>
       </c>
       <c r="H38" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>71.44310047544916</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>71.44310047544914</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>87.39865040152196</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25602,22 +25602,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>44.07924092405733</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>235.5326023960794</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>291.3114034081254</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>71.44310047545044</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>71.44310047544916</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>79.12742163695494</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>81.2746734634359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>101.0993245946909</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>165.9998913892441</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>50.14070125298609</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>50.14070125298608</v>
       </c>
       <c r="I45" t="n">
         <v>21.30239922246437</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>130.5708587072044</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.2399087000417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693023.9824097496</v>
+        <v>693023.9824097498</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693023.9824097496</v>
+        <v>693023.98240975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693023.9824097495</v>
+        <v>693023.9824097498</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693023.9824097495</v>
+        <v>693023.9824097499</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>705719.7825524453</v>
+        <v>705719.7825524451</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>705719.7825524453</v>
+        <v>705719.7825524452</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693023.9824097498</v>
+        <v>693023.9824097496</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693023.9824097496</v>
+        <v>693023.9824097498</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693023.9824097499</v>
+        <v>693023.9824097496</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693023.9824097498</v>
+        <v>693023.9824097495</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="E2" t="n">
         <v>376472.9640493381</v>
       </c>
       <c r="F2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="G2" t="n">
         <v>376472.9640493381</v>
       </c>
       <c r="H2" t="n">
-        <v>376472.964049338</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="I2" t="n">
         <v>381920.5004605911</v>
       </c>
       <c r="J2" t="n">
-        <v>381920.5004605911</v>
+        <v>381920.500460591</v>
       </c>
       <c r="K2" t="n">
         <v>381920.5004605911</v>
       </c>
       <c r="L2" t="n">
-        <v>381920.5004605911</v>
+        <v>381920.5004605909</v>
       </c>
       <c r="M2" t="n">
-        <v>376472.9640493382</v>
+        <v>376472.964049338</v>
       </c>
       <c r="N2" t="n">
-        <v>376472.964049338</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="O2" t="n">
-        <v>376472.964049338</v>
+        <v>376472.9640493381</v>
       </c>
       <c r="P2" t="n">
         <v>376472.964049338</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761234</v>
+        <v>924651.5793761238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648438</v>
+        <v>4895.439270648317</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468587</v>
+        <v>150597.3382468582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="F4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742347</v>
       </c>
       <c r="G4" t="n">
-        <v>15880.58142742345</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="H4" t="n">
-        <v>15880.58142742344</v>
+        <v>15880.58142742346</v>
       </c>
       <c r="I4" t="n">
-        <v>18784.15557418255</v>
+        <v>18784.15557418256</v>
       </c>
       <c r="J4" t="n">
         <v>18784.15557418255</v>
       </c>
       <c r="K4" t="n">
-        <v>18784.15557418254</v>
+        <v>18784.15557418255</v>
       </c>
       <c r="L4" t="n">
         <v>18784.15557418254</v>
@@ -26456,7 +26456,7 @@
         <v>15880.58142742346</v>
       </c>
       <c r="O4" t="n">
-        <v>15880.58142742346</v>
+        <v>15880.58142742344</v>
       </c>
       <c r="P4" t="n">
         <v>15880.58142742344</v>
@@ -26478,22 +26478,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.4105042567</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425671</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.4105042567</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425669</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
         <v>59025.70047253833</v>
@@ -26508,7 +26508,7 @@
         <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.4105042567</v>
       </c>
       <c r="P5" t="n">
         <v>57906.4105042567</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63647.71308519002</v>
+        <v>63603.57730650901</v>
       </c>
       <c r="C6" t="n">
-        <v>63647.71308518996</v>
+        <v>63603.57730650889</v>
       </c>
       <c r="D6" t="n">
-        <v>63647.71308519002</v>
+        <v>63603.57730650895</v>
       </c>
       <c r="E6" t="n">
-        <v>-621965.6072584654</v>
+        <v>-627432.7329430996</v>
       </c>
       <c r="F6" t="n">
-        <v>302685.972117658</v>
+        <v>297218.8464330244</v>
       </c>
       <c r="G6" t="n">
-        <v>302685.972117658</v>
+        <v>297218.8464330244</v>
       </c>
       <c r="H6" t="n">
-        <v>302685.9721176579</v>
+        <v>297218.8464330243</v>
       </c>
       <c r="I6" t="n">
-        <v>299215.2051432217</v>
+        <v>293965.9809150384</v>
       </c>
       <c r="J6" t="n">
-        <v>304110.6444138702</v>
+        <v>298861.4201856866</v>
       </c>
       <c r="K6" t="n">
-        <v>304110.6444138702</v>
+        <v>298861.4201856867</v>
       </c>
       <c r="L6" t="n">
-        <v>304110.6444138702</v>
+        <v>298861.4201856866</v>
       </c>
       <c r="M6" t="n">
-        <v>152088.6338707993</v>
+        <v>146621.508186166</v>
       </c>
       <c r="N6" t="n">
-        <v>302685.9721176578</v>
+        <v>297218.8464330243</v>
       </c>
       <c r="O6" t="n">
-        <v>302685.9721176578</v>
+        <v>297218.8464330244</v>
       </c>
       <c r="P6" t="n">
-        <v>302685.9721176579</v>
+        <v>297218.8464330242</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.489014607487</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
         <v>919.4890146074871</v>
       </c>
       <c r="G3" t="n">
-        <v>919.489014607487</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="H3" t="n">
-        <v>919.489014607487</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="I3" t="n">
         <v>919.4890146074871</v>
@@ -26776,10 +26776,10 @@
         <v>919.4890146074871</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.489014607487</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074871</v>
+        <v>919.489014607487</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087743</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087743</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087742</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
         <v>641.1322360870907</v>
@@ -26828,7 +26828,7 @@
         <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087743</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087743</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.489014607487</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087741</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831664</v>
+        <v>18.40937447831618</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.313487130458</v>
+        <v>604.3134871304563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087741</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207242</v>
       </c>
       <c r="J11" t="n">
-        <v>313.730575893637</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025211</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L11" t="n">
-        <v>583.3256790861146</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857303</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404914</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515573</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.196389201357</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454518</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
         <v>16.18115843796693</v>
@@ -31837,28 +31837,28 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K12" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
-        <v>429.4273930956948</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610803</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755601</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623806</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130261</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
         <v>252.460455482418</v>
@@ -31867,10 +31867,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096891</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153587</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31913,10 +31913,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
-        <v>14.7419714145266</v>
+        <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445193</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,34 +31925,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572269</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258507</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
-        <v>253.7337472604563</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920854</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
         <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598667</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040865</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H17" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
-        <v>313.730575893637</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025211</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861146</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857303</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404914</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515573</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R17" t="n">
-        <v>232.196389201357</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454518</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T17" t="n">
         <v>16.18115843796693</v>
@@ -32311,28 +32311,28 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.4273930956948</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610803</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755601</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623806</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130261</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.460455482418</v>
@@ -32341,10 +32341,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096891</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153587</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32387,10 +32387,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
-        <v>14.7419714145266</v>
+        <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445193</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
@@ -32399,34 +32399,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.5134974572269</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258507</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604563</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920854</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
         <v>200.5390467268525</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598667</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040865</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207242</v>
       </c>
       <c r="J20" t="n">
-        <v>313.730575893637</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025211</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861146</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857303</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404914</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515573</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R20" t="n">
-        <v>232.196389201357</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454518</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796693</v>
@@ -32548,28 +32548,28 @@
         <v>19.10108311477063</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326404</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
-        <v>429.4273930956948</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610803</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755601</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623806</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130261</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
         <v>252.460455482418</v>
@@ -32578,10 +32578,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096891</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153587</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32624,10 +32624,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H22" t="n">
-        <v>14.7419714145266</v>
+        <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445193</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
@@ -32636,34 +32636,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
-        <v>246.5134974572269</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258507</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
-        <v>253.7337472604563</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920854</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268525</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598667</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040865</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34131,34 +34131,34 @@
         <v>142.5069356207242</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.730575893637</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025211</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861146</v>
       </c>
       <c r="M41" t="n">
         <v>649.0622128088318</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857303</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404914</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515573</v>
       </c>
       <c r="Q41" t="n">
         <v>399.1737460349518</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013571</v>
+        <v>232.196389201357</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454518</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
@@ -34216,19 +34216,19 @@
         <v>319.3662929321118</v>
       </c>
       <c r="L42" t="n">
-        <v>429.4273930956949</v>
+        <v>429.4273930956948</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610803</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755601</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623806</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130261</v>
       </c>
       <c r="Q42" t="n">
         <v>252.460455482418</v>
@@ -34237,10 +34237,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096891</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153587</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34283,10 +34283,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H43" t="n">
-        <v>14.74197141452661</v>
+        <v>14.7419714145266</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445193</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
@@ -34295,16 +34295,16 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572269</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258507</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604563</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920854</v>
       </c>
       <c r="P43" t="n">
         <v>200.5390467268525</v>
@@ -34319,10 +34319,10 @@
         <v>28.89607280332052</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598667</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040865</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,34 +34368,34 @@
         <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.730575893637</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025211</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861146</v>
       </c>
       <c r="M44" t="n">
         <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857303</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404914</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515573</v>
       </c>
       <c r="Q44" t="n">
         <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.196389201357</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454518</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
@@ -34453,19 +34453,19 @@
         <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.4273930956948</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610803</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755601</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623806</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130261</v>
       </c>
       <c r="Q45" t="n">
         <v>252.460455482418</v>
@@ -34474,10 +34474,10 @@
         <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096891</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153587</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34520,10 +34520,10 @@
         <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
-        <v>14.74197141452661</v>
+        <v>14.7419714145266</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445193</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
@@ -34532,16 +34532,16 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572269</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258507</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604563</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920854</v>
       </c>
       <c r="P46" t="n">
         <v>200.5390467268525</v>
@@ -34556,10 +34556,10 @@
         <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598667</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040865</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.6846713669507</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161274</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891394</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.7100487188046</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962878</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.6108513872249</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717669</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158206</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M12" t="n">
-        <v>358.987479039062</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922268</v>
+        <v>476.9971861087254</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179362</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986959</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058009</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K13" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L13" t="n">
         <v>274.1035227175431</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876913</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396849</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917459</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063825</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K15" t="n">
         <v>181.5248539577528</v>
       </c>
       <c r="L15" t="n">
-        <v>409.6125748283496</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M15" t="n">
         <v>358.9874790390621</v>
       </c>
       <c r="N15" t="n">
-        <v>622.7228616087745</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179363</v>
+        <v>595.4331886916623</v>
       </c>
       <c r="P15" t="n">
         <v>243.692693698696</v>
@@ -35749,7 +35749,7 @@
         <v>112.4786813963965</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669507</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161274</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891394</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188046</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962878</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.6108513872249</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717669</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158206</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="M18" t="n">
-        <v>358.987479039062</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922268</v>
+        <v>558.3409315895459</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179362</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986959</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058009</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K19" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
         <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876913</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
-        <v>297.8659196396849</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
-        <v>197.8176059917459</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.6846713669507</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161274</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891394</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188046</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962878</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.6108513872249</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063825</v>
+        <v>60.01815506597373</v>
       </c>
       <c r="K21" t="n">
-        <v>181.5248539577528</v>
+        <v>181.5248539577529</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158206</v>
+        <v>480.6258843944683</v>
       </c>
       <c r="M21" t="n">
-        <v>358.987479039062</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922268</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179362</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P21" t="n">
-        <v>392.0348328919225</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963965</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078698</v>
+        <v>22.637321420787</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058009</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K22" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L22" t="n">
         <v>274.1035227175431</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876913</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
-        <v>297.8659196396849</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P22" t="n">
-        <v>197.8176059917459</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669508</v>
+        <v>139.8619362969987</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575406</v>
@@ -36366,7 +36366,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M23" t="n">
-        <v>491.6096643845891</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N23" t="n">
         <v>430.1516543891395</v>
@@ -36381,7 +36381,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703314</v>
+        <v>285.2160643393767</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158207</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390621</v>
@@ -36454,7 +36454,7 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P24" t="n">
-        <v>559.2689251794201</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q24" t="n">
         <v>112.4786813963965</v>
@@ -36603,7 +36603,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815591</v>
+        <v>491.6096643845891</v>
       </c>
       <c r="N26" t="n">
         <v>430.1516543891395</v>
@@ -36615,10 +36615,10 @@
         <v>300.3194450962879</v>
       </c>
       <c r="Q26" t="n">
-        <v>184.0453210905501</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020737</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.0181550659737</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K27" t="n">
-        <v>181.5248539577528</v>
+        <v>425.3979993747976</v>
       </c>
       <c r="L27" t="n">
-        <v>330.6804848662308</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O27" t="n">
         <v>327.9652704179363</v>
@@ -36694,7 +36694,7 @@
         <v>243.692693698696</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963965</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M29" t="n">
-        <v>491.6096643845887</v>
+        <v>425.8932445116066</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891395</v>
@@ -36855,7 +36855,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>99.82562661638379</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K30" t="n">
-        <v>181.5248539577528</v>
+        <v>377.3860472157828</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158207</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N30" t="n">
         <v>641.1322360870907</v>
@@ -37071,7 +37071,7 @@
         <v>132.6846713669508</v>
       </c>
       <c r="K32" t="n">
-        <v>323.0046407605701</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161275</v>
@@ -37083,7 +37083,7 @@
         <v>430.1516543891395</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188047</v>
+        <v>399.8873136488523</v>
       </c>
       <c r="P32" t="n">
         <v>300.3194450962879</v>
@@ -37092,7 +37092,7 @@
         <v>176.8680561605023</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722493</v>
+        <v>82.32727126020737</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>181.5248539577528</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158207</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O33" t="n">
-        <v>367.7727419683466</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P33" t="n">
-        <v>243.692693698696</v>
+        <v>473.4749394207284</v>
       </c>
       <c r="Q33" t="n">
         <v>112.4786813963965</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669511</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
         <v>250.1109559575406</v>
@@ -37314,7 +37314,7 @@
         <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891395</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.0181550659737</v>
+        <v>92.62341400781899</v>
       </c>
       <c r="K36" t="n">
-        <v>181.5248539577528</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158207</v>
@@ -37402,13 +37402,13 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>518.1258682323329</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
         <v>322.5559691322455</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>181.5248539577528</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158207</v>
+        <v>439.2151525090487</v>
       </c>
       <c r="M39" t="n">
         <v>358.9874790390621</v>
@@ -37639,7 +37639,7 @@
         <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>392.0348328919239</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
         <v>322.5559691322455</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669507</v>
       </c>
       <c r="K41" t="n">
         <v>250.1109559575406</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161274</v>
       </c>
       <c r="M41" t="n">
         <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891394</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962878</v>
       </c>
       <c r="Q41" t="n">
         <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722513</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>186.1091904063825</v>
+        <v>92.62341400781804</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8669931509809</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158206</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>358.987479039062</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179362</v>
       </c>
       <c r="P42" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986959</v>
       </c>
       <c r="Q42" t="n">
         <v>322.5559691322455</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058009</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295873</v>
@@ -37946,16 +37946,16 @@
         <v>274.1035227175431</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876913</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396849</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917459</v>
       </c>
       <c r="Q43" t="n">
         <v>52.68079795403615</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669507</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161274</v>
       </c>
       <c r="M44" t="n">
         <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891394</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188046</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.3194450962878</v>
       </c>
       <c r="Q44" t="n">
         <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722493</v>
+        <v>16.6108513872249</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5043145717665</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>439.2151525090478</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>358.987479039062</v>
       </c>
       <c r="N45" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922268</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179362</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986959</v>
       </c>
       <c r="Q45" t="n">
         <v>322.5559691322455</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63732142078698</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058009</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295873</v>
@@ -38183,16 +38183,16 @@
         <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876913</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396849</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917459</v>
       </c>
       <c r="Q46" t="n">
         <v>52.68079795403615</v>
